--- a/biology/Médecine/Crépitant/Crépitant.xlsx
+++ b/biology/Médecine/Crépitant/Crépitant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%A9pitant</t>
+          <t>Crépitant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les crépitants ou râles crépitants sont les bruits issus de l'appareil respiratoire au temps inspiratoire et qui font penser aux bruits du sel dans le feu ou aux bruits de pas dans la neige, ils sont le signe de la présence de liquide dans les alvéoles pulmonaires.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%A9pitant</t>
+          <t>Crépitant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les râles crépitants sont dus principalement à une infection, ou à un œdème lui-même dû à une insuffisance cardiaque.
 </t>
